--- a/biology/Zoologie/Arthrosaura_reticulata/Arthrosaura_reticulata.xlsx
+++ b/biology/Zoologie/Arthrosaura_reticulata/Arthrosaura_reticulata.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Arthrosaura reticulata (Lézard à Feuille) est une espèce de sauriens de la famille des Gymnophthalmidae[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Arthrosaura reticulata (Lézard à Feuille) est une espèce de sauriens de la famille des Gymnophthalmidae.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce se rencontre en Colombie, au Venezuela, en Équateur, au Pérou, en Bolivie et au Brésil au Mato Grosso, au Rondonia, en Amazonas, au Pará et en Amapá[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce se rencontre en Colombie, au Venezuela, en Équateur, au Pérou, en Bolivie et au Brésil au Mato Grosso, au Rondonia, en Amazonas, au Pará et en Amapá.
 </t>
         </is>
       </c>
@@ -542,7 +556,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>O'Shaughnessy, 1881 : An account of the collection of lizards made by Mr. Buckley in Ecuador, and now in the British Museum, with descritions of the new species. Proceedings of the Zoological Society of London, vol. 1881, p. 227-245 (texte intégral).</t>
         </is>
